--- a/SecondFile.xlsx
+++ b/SecondFile.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341A03E-1D03-47E3-95CA-62F36C34A38C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ba</t>
   </si>
@@ -32,12 +31,27 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>ffg</t>
+  </si>
+  <si>
+    <t>ag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,31 +362,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SecondFile.xlsx
+++ b/SecondFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ba</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>ag</t>
+  </si>
+  <si>
+    <t>VETKA 22222222</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +418,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
